--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3594.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3594.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.789835615596648</v>
+        <v>1.178152918815613</v>
       </c>
       <c r="B1">
-        <v>4.213524677314772</v>
+        <v>3.700886249542236</v>
       </c>
       <c r="C1">
-        <v>3.898465556239305</v>
+        <v>4.342037677764893</v>
       </c>
       <c r="D1">
-        <v>1.159599841839836</v>
+        <v>1.824571847915649</v>
       </c>
       <c r="E1">
-        <v>0.7903870850642889</v>
+        <v>1.266490459442139</v>
       </c>
     </row>
   </sheetData>
